--- a/estatisticas.xlsx
+++ b/estatisticas.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>dancabilidade</t>
+  </si>
+  <si>
+    <t>duracao</t>
   </si>
   <si>
     <t>energia</t>
@@ -410,23 +413,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>50</v>
@@ -434,114 +440,147 @@
       <c r="C2">
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
+        <v>3.27</v>
+      </c>
+      <c r="D3">
         <v>0.68</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>0.14</v>
       </c>
       <c r="C4">
+        <v>0.67</v>
+      </c>
+      <c r="D4">
         <v>0.13</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0.35</v>
       </c>
       <c r="C5">
+        <v>1.62</v>
+      </c>
+      <c r="D5">
         <v>0.32</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>0.6</v>
       </c>
       <c r="C6">
+        <v>2.86</v>
+      </c>
+      <c r="D6">
         <v>0.59</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
+        <v>3.2</v>
+      </c>
+      <c r="D7">
         <v>0.7</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
+        <v>3.85</v>
+      </c>
+      <c r="D8">
         <v>0.76</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>0.95</v>
       </c>
       <c r="C9">
+        <v>4.98</v>
+      </c>
+      <c r="D9">
         <v>0.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
+        <v>3.2</v>
+      </c>
+      <c r="D10">
         <v>0.7</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>0.02</v>
       </c>
       <c r="C11">
+        <v>0.45</v>
+      </c>
+      <c r="D11">
         <v>0.02</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>0.21</v>
       </c>
       <c r="C12">
+        <v>0.21</v>
+      </c>
+      <c r="D12">
         <v>0.19</v>
       </c>
     </row>
